--- a/Waterquality/Book4.xlsx
+++ b/Waterquality/Book4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix.toutant/Documents/GitHub/ClimateCleanup-Capstone/Waterquality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8BAE29-394C-4841-B6FE-8992D7172BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A2F4C-2A03-A34F-BC16-18A5D8D7EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16140" xr2:uid="{F9E5DE8A-9EBF-0B48-A51E-ABBFE53E9AA9}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16140" xr2:uid="{F9E5DE8A-9EBF-0B48-A51E-ABBFE53E9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="1150">
   <si>
     <t>Voedselbos</t>
   </si>
@@ -470,9 +470,6 @@
     <t>Biodiversiteit, maatschappelijk</t>
   </si>
   <si>
-    <t>Koepelplan voedselbossen Noord-Brabant</t>
-  </si>
-  <si>
     <t>Heische Hoeve</t>
   </si>
   <si>
@@ -3483,13 +3480,19 @@
   </si>
   <si>
     <t>info@stichtingjuniper.nl</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3518,6 +3521,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0B57D0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3540,20 +3561,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3839,6 +3863,42 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3853,9 +3913,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}" name="Table1" displayName="Table1" ref="A1:P248" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:P248" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}" name="Table1" displayName="Table1" ref="A1:R248" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:R248" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Noord-Brabant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{BEC96F6B-777B-AF47-946D-5FAC20732C51}" name="Voedselbos" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{8EA4AE63-DD8C-E846-97D7-8486D4237687}" name="Website" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{8E79C07D-2E5A-6446-9914-D8C398EAFEF7}" name="Tel." dataDxfId="14"/>
@@ -3872,6 +3943,8 @@
     <tableColumn id="14" xr3:uid="{6CC70ED1-52F2-2E4A-81F3-670425C107A6}" name="Stichting Voedselbosbouw" dataDxfId="4"/>
     <tableColumn id="15" xr3:uid="{D66C1C64-2666-8D49-809D-435000D95138}" name="Nationale Monitoringsprogramma Voedselbossen" dataDxfId="3"/>
     <tableColumn id="16" xr3:uid="{955C0D5A-D59A-1340-BC9B-DD27C152659D}" name="Overige platforms" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{BA2C221D-8092-ED4F-8ADA-211764BDD8F8}" name="Lat" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{F4E684EA-96FC-AC4B-B8BA-C1C0D8376AF7}" name="Lon" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4194,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E9A1F4-02E3-5546-9C92-4F57247C2570}">
-  <dimension ref="A1:P248"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4210,9 +4283,10 @@
     <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="41.6640625" customWidth="1"/>
     <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="18" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4261,8 +4335,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4305,8 +4385,10 @@
         <v>24</v>
       </c>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4345,8 +4427,14 @@
         <v>24</v>
       </c>
       <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="5">
+        <v>51874508</v>
+      </c>
+      <c r="R3" s="4">
+        <v>6469637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -4387,8 +4475,14 @@
         <v>24</v>
       </c>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="6">
+        <v>51669840</v>
+      </c>
+      <c r="R4" s="4">
+        <v>5404334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -4423,8 +4517,10 @@
         <v>24</v>
       </c>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -4467,8 +4563,14 @@
         <v>24</v>
       </c>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4">
+        <v>51635890</v>
+      </c>
+      <c r="R6" s="4">
+        <v>5326369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -4509,8 +4611,10 @@
         <v>24</v>
       </c>
       <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -4553,8 +4657,10 @@
         <v>24</v>
       </c>
       <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4707,10 @@
         <v>24</v>
       </c>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -4649,8 +4757,10 @@
         <v>24</v>
       </c>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -4697,8 +4807,10 @@
         <v>24</v>
       </c>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
@@ -4739,8 +4851,10 @@
         <v>24</v>
       </c>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -4785,8 +4899,10 @@
         <v>24</v>
       </c>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>104</v>
       </c>
@@ -4829,8 +4945,10 @@
         <v>24</v>
       </c>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -4875,8 +4993,10 @@
         <v>24</v>
       </c>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -4921,8 +5041,10 @@
         <v>24</v>
       </c>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
@@ -4961,8 +5083,10 @@
         <v>24</v>
       </c>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -5009,8 +5133,10 @@
         <v>24</v>
       </c>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
@@ -5051,8 +5177,10 @@
         <v>24</v>
       </c>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>139</v>
       </c>
@@ -5088,29 +5216,29 @@
       <c r="O20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -5130,34 +5258,34 @@
       <c r="O21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2">
         <v>2019</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>38</v>
@@ -5174,40 +5302,40 @@
       <c r="O22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="F23" s="2">
         <v>2019</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>38</v>
@@ -5223,22 +5351,24 @@
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
@@ -5247,7 +5377,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>38</v>
@@ -5262,38 +5392,38 @@
         <v>25</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="F25" s="2">
         <v>2018</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>38</v>
@@ -5310,89 +5440,95 @@
       <c r="O25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="4">
+        <v>51391644</v>
+      </c>
+      <c r="R25" s="4">
+        <v>5531848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="F26" s="2">
         <v>2015</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="F27" s="2">
         <v>1991</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>24</v>
@@ -5405,40 +5541,42 @@
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="F28" s="2">
         <v>2018</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>24</v>
@@ -5451,36 +5589,38 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="F29" s="2">
         <v>1994</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>24</v>
@@ -5493,20 +5633,22 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="F30" s="2">
         <v>2019</v>
@@ -5515,10 +5657,10 @@
         <v>78</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
@@ -5535,20 +5677,22 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="F31" s="2">
         <v>2020</v>
@@ -5559,10 +5703,10 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>24</v>
@@ -5575,38 +5719,40 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="F32" s="2">
         <v>2017</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>24</v>
@@ -5619,37 +5765,39 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="F33" s="2">
         <v>2014</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>31</v>
@@ -5665,20 +5813,22 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="F34" s="2">
         <v>2018</v>
@@ -5687,13 +5837,13 @@
         <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>64</v>
@@ -5709,38 +5859,40 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="F35" s="2">
         <v>2021</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>24</v>
@@ -5753,38 +5905,40 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F36" s="2">
         <v>2011</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>24</v>
@@ -5797,34 +5951,36 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="F37" s="2">
         <v>2018</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="K37" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>24</v>
@@ -5837,37 +5993,39 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F38" s="2">
         <v>2021</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>31</v>
@@ -5883,20 +6041,22 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="F39" s="2">
         <v>2020</v>
@@ -5906,13 +6066,13 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>24</v>
@@ -5925,37 +6085,39 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="F40" s="2">
         <v>2019</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>31</v>
@@ -5971,33 +6133,35 @@
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="F41" s="2">
         <v>2019</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>31</v>
@@ -6013,35 +6177,37 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="F42" s="2">
         <v>2021</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>31</v>
@@ -6057,22 +6223,24 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F43" s="2">
         <v>2021</v>
@@ -6081,13 +6249,13 @@
         <v>70</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>124</v>
@@ -6103,37 +6271,39 @@
       </c>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="F44" s="2">
         <v>2019</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>124</v>
@@ -6149,22 +6319,24 @@
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="F45" s="2">
         <v>2019</v>
@@ -6174,10 +6346,10 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>38</v>
@@ -6193,37 +6365,43 @@
       </c>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="4">
+        <v>51426591</v>
+      </c>
+      <c r="R45" s="4">
+        <v>5592802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="F46" s="2">
         <v>2016</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>38</v>
@@ -6239,33 +6417,39 @@
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="5">
+        <v>51575334</v>
+      </c>
+      <c r="R46" s="4">
+        <v>5980283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="F47" s="2">
         <v>2018</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>124</v>
@@ -6281,22 +6465,24 @@
       </c>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F48" s="2">
         <v>2021</v>
@@ -6305,13 +6491,13 @@
         <v>36</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>124</v>
@@ -6327,24 +6513,26 @@
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="F49" s="2">
         <v>2020</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -6363,37 +6551,39 @@
       </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="F50" s="2">
         <v>2020</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I50" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>31</v>
@@ -6409,34 +6599,36 @@
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="F51" s="2">
         <v>2018</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>87</v>
@@ -6455,20 +6647,22 @@
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="F52" s="2">
         <v>2020</v>
@@ -6477,14 +6671,14 @@
         <v>54</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>24</v>
@@ -6497,22 +6691,24 @@
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="F53" s="2">
         <v>2021</v>
@@ -6521,16 +6717,16 @@
         <v>115</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="K53" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>24</v>
@@ -6543,37 +6739,39 @@
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="F54" s="2">
         <v>2016</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>64</v>
@@ -6589,37 +6787,39 @@
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="F55" s="2">
         <v>2000</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>82</v>
@@ -6635,20 +6835,22 @@
       </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -6669,35 +6871,37 @@
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F57" s="2">
         <v>2017</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>23</v>
@@ -6713,37 +6917,39 @@
       </c>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="F58" s="2">
         <v>2021</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>23</v>
@@ -6759,22 +6965,24 @@
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C59" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="F59" s="2">
         <v>2018</v>
@@ -6786,10 +6994,10 @@
         <v>89</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>38</v>
@@ -6805,18 +7013,20 @@
       </c>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="F60" s="2">
         <v>2020</v>
@@ -6827,7 +7037,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>38</v>
@@ -6843,20 +7053,22 @@
       </c>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="F61" s="2">
         <v>2018</v>
@@ -6865,13 +7077,13 @@
         <v>130</v>
       </c>
       <c r="H61" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>38</v>
@@ -6887,22 +7099,24 @@
       </c>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C62" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F62" s="2">
         <v>2017</v>
@@ -6915,7 +7129,7 @@
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>38</v>
@@ -6931,28 +7145,34 @@
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="4">
+        <v>51453496</v>
+      </c>
+      <c r="R62" s="4">
+        <v>4683884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F63" s="2">
         <v>2019</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>89</v>
@@ -6973,31 +7193,37 @@
       </c>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="5">
+        <v>51438093</v>
+      </c>
+      <c r="R63" s="4">
+        <v>4615178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="F64" s="2">
         <v>2021</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>38</v>
@@ -7013,37 +7239,39 @@
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="F65" s="2">
         <v>2020</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>38</v>
@@ -7059,22 +7287,28 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="4">
+        <v>51642358</v>
+      </c>
+      <c r="R65" s="4">
+        <v>4952210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="F66" s="2">
         <v>2020</v>
@@ -7084,10 +7318,10 @@
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>38</v>
@@ -7103,37 +7337,39 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="F67" s="2">
         <v>2021</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I67" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>124</v>
@@ -7149,20 +7385,22 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="F68" s="2">
         <v>2021</v>
@@ -7172,10 +7410,10 @@
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>31</v>
@@ -7191,31 +7429,33 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="F69" s="2">
         <v>2018</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>38</v>
@@ -7231,33 +7471,35 @@
       </c>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F70" s="2">
         <v>2012</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>23</v>
@@ -7273,27 +7515,29 @@
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -7311,37 +7555,39 @@
       </c>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="C72" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F72" s="2">
         <v>2018</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="I72" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="K72" s="2" t="s">
         <v>23</v>
@@ -7357,37 +7603,39 @@
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="F73" s="2">
         <v>2021</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>38</v>
@@ -7403,22 +7651,24 @@
       </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -7439,32 +7689,34 @@
       </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>25</v>
@@ -7477,27 +7729,29 @@
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="F76" s="2">
         <v>2016</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
@@ -7517,34 +7771,36 @@
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="F77" s="2">
         <v>2015</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>25</v>
@@ -7557,22 +7813,24 @@
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -7593,19 +7851,21 @@
       </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2">
@@ -7618,7 +7878,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>25</v>
@@ -7631,22 +7891,24 @@
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="F80" s="2">
         <v>2015</v>
@@ -7656,7 +7918,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>25</v>
@@ -7669,17 +7931,19 @@
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -7701,20 +7965,22 @@
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="F82" s="2">
         <v>2022</v>
@@ -7723,10 +7989,10 @@
         <v>130</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>77</v>
@@ -7745,32 +8011,34 @@
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="F83" s="2">
         <v>2019</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
@@ -7787,26 +8055,28 @@
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="F84" s="2">
         <v>2020</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
@@ -7827,20 +8097,22 @@
       </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="F85" s="2">
         <v>2021</v>
@@ -7849,13 +8121,13 @@
         <v>130</v>
       </c>
       <c r="H85" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="I85" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>38</v>
@@ -7871,19 +8143,25 @@
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="4">
+        <v>51734909</v>
+      </c>
+      <c r="R85" s="4">
+        <v>5343474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2">
@@ -7894,7 +8172,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>25</v>
@@ -7907,32 +8185,34 @@
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="F87" s="2">
         <v>2019</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
@@ -7949,29 +8229,31 @@
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="F88" s="2">
         <v>2013</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -7989,29 +8271,31 @@
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="F89" s="2">
         <v>2015</v>
       </c>
       <c r="G89" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -8029,31 +8313,33 @@
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="F90" s="2">
         <v>2011</v>
       </c>
       <c r="G90" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>583</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -8071,22 +8357,28 @@
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="4">
+        <v>51513982</v>
+      </c>
+      <c r="R90" s="4">
+        <v>5243554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="F91" s="2">
         <v>2018</v>
@@ -8109,24 +8401,26 @@
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
         <v>2017</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -8145,22 +8439,24 @@
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -8181,31 +8477,33 @@
       </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
         <v>130</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>23</v>
@@ -8221,29 +8519,31 @@
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -8261,23 +8561,25 @@
       </c>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+    </row>
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -8295,34 +8597,36 @@
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>25</v>
@@ -8335,29 +8639,31 @@
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -8375,29 +8681,31 @@
       </c>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
         <v>78</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -8415,34 +8723,36 @@
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="F100" s="2">
         <v>2019</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>89</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2" t="s">
@@ -8459,20 +8769,22 @@
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="F101" s="2">
         <v>2022</v>
@@ -8484,7 +8796,7 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>25</v>
@@ -8497,24 +8809,26 @@
       </c>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+    </row>
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -8533,26 +8847,28 @@
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+    </row>
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -8571,20 +8887,22 @@
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+    </row>
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>655</v>
       </c>
       <c r="F104" s="2">
         <v>2021</v>
@@ -8609,30 +8927,32 @@
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2" t="s">
@@ -8649,32 +8969,34 @@
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+    </row>
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>25</v>
@@ -8687,24 +9009,26 @@
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -8723,24 +9047,26 @@
       </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -8759,20 +9085,22 @@
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+    </row>
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2" t="s">
@@ -8782,7 +9110,7 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>25</v>
@@ -8795,20 +9123,22 @@
       </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+    </row>
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
@@ -8818,7 +9148,7 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>25</v>
@@ -8831,24 +9161,26 @@
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+    </row>
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -8867,30 +9199,32 @@
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+    </row>
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>25</v>
@@ -8903,24 +9237,26 @@
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -8939,24 +9275,26 @@
       </c>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -8975,30 +9313,32 @@
       </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>691</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>25</v>
@@ -9011,24 +9351,26 @@
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+    </row>
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>696</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -9047,30 +9389,32 @@
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+    </row>
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>25</v>
@@ -9083,24 +9427,26 @@
       </c>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+    </row>
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -9119,24 +9465,26 @@
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+    </row>
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -9155,24 +9503,26 @@
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+    </row>
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -9191,20 +9541,22 @@
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+    </row>
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="2" t="s">
@@ -9227,30 +9579,32 @@
       </c>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>25</v>
@@ -9263,30 +9617,32 @@
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+    </row>
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>25</v>
@@ -9299,24 +9655,26 @@
       </c>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+    </row>
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -9335,24 +9693,26 @@
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+    </row>
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -9371,24 +9731,26 @@
       </c>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+    </row>
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -9407,24 +9769,26 @@
       </c>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+    </row>
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -9443,24 +9807,26 @@
       </c>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+    </row>
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>727</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -9479,29 +9845,31 @@
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+    </row>
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K129" s="2" t="s">
         <v>23</v>
@@ -9517,26 +9885,28 @@
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+    </row>
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="D130" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -9555,24 +9925,26 @@
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+    </row>
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -9591,26 +9963,28 @@
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+    </row>
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>30</v>
@@ -9631,20 +10005,22 @@
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+    </row>
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="2" t="s">
@@ -9654,7 +10030,7 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>25</v>
@@ -9667,30 +10043,32 @@
       </c>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+    </row>
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>754</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>25</v>
@@ -9703,26 +10081,28 @@
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+    </row>
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="C135" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -9741,32 +10121,34 @@
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+    </row>
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="C136" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>765</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>766</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J136" s="2"/>
       <c r="K136" s="2" t="s">
@@ -9783,24 +10165,26 @@
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+    </row>
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -9819,24 +10203,26 @@
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+    </row>
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>771</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>772</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -9855,24 +10241,26 @@
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+    </row>
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -9891,24 +10279,26 @@
       </c>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+    </row>
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -9927,24 +10317,26 @@
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+    </row>
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -9963,34 +10355,36 @@
       </c>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+    </row>
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>785</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>786</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="F142" s="2">
         <v>2021</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="K142" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>25</v>
@@ -10003,24 +10397,26 @@
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+    </row>
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -10039,22 +10435,24 @@
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+    </row>
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
@@ -10077,30 +10475,32 @@
       </c>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+    </row>
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>25</v>
@@ -10113,24 +10513,26 @@
       </c>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+    </row>
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -10149,20 +10551,22 @@
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+    </row>
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2" t="s">
@@ -10185,30 +10589,32 @@
       </c>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+    </row>
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>25</v>
@@ -10221,30 +10627,32 @@
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+    </row>
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F149" s="2"/>
       <c r="G149" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>25</v>
@@ -10257,24 +10665,26 @@
       </c>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+    </row>
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F150" s="2"/>
       <c r="G150" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -10293,24 +10703,26 @@
       </c>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+    </row>
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -10329,24 +10741,26 @@
       </c>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+    </row>
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -10365,28 +10779,30 @@
       </c>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+    </row>
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H153" s="2"/>
       <c r="I153" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -10401,30 +10817,32 @@
       </c>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+    </row>
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>25</v>
@@ -10437,30 +10855,32 @@
       </c>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+    </row>
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>25</v>
@@ -10473,30 +10893,32 @@
       </c>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+    </row>
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>25</v>
@@ -10509,26 +10931,28 @@
       </c>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+    </row>
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="F157" s="2"/>
       <c r="G157" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -10547,24 +10971,26 @@
       </c>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+    </row>
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -10583,20 +11009,22 @@
       </c>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q158" s="2"/>
+      <c r="R158" s="2"/>
+    </row>
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="2" t="s">
@@ -10606,7 +11034,7 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>25</v>
@@ -10619,36 +11047,38 @@
       </c>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+    </row>
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>841</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J160" s="2"/>
       <c r="K160" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>25</v>
@@ -10661,24 +11091,26 @@
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+    </row>
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -10697,24 +11129,26 @@
       </c>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+    </row>
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>849</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>850</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -10733,22 +11167,24 @@
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+    </row>
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="2" t="s">
@@ -10758,7 +11194,7 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>25</v>
@@ -10771,30 +11207,32 @@
       </c>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+    </row>
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F164" s="2"/>
       <c r="G164" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>25</v>
@@ -10807,30 +11245,32 @@
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+    </row>
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>25</v>
@@ -10843,30 +11283,32 @@
       </c>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+    </row>
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>25</v>
@@ -10879,20 +11321,22 @@
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+    </row>
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>868</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="2" t="s">
@@ -10915,24 +11359,26 @@
       </c>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+    </row>
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -10951,24 +11397,26 @@
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+    </row>
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -10987,24 +11435,26 @@
       </c>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -11023,26 +11473,28 @@
       </c>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+    </row>
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
@@ -11061,30 +11513,32 @@
       </c>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171" s="2"/>
+      <c r="R171" s="2"/>
+    </row>
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>25</v>
@@ -11097,28 +11551,30 @@
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+    </row>
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>889</v>
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H173" s="2"/>
       <c r="I173" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J173" s="2"/>
       <c r="K173" s="2" t="s">
@@ -11135,30 +11591,32 @@
       </c>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+    </row>
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L174" s="2" t="s">
         <v>25</v>
@@ -11171,31 +11629,33 @@
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+    </row>
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="C175" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K175" s="2" t="s">
         <v>82</v>
@@ -11211,24 +11671,26 @@
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+    </row>
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -11247,20 +11709,22 @@
       </c>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+    </row>
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2" t="s">
@@ -11283,26 +11747,28 @@
       </c>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+    </row>
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="E178" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -11321,20 +11787,22 @@
       </c>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+    </row>
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="2" t="s">
@@ -11357,26 +11825,28 @@
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+    </row>
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="C180" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -11395,24 +11865,26 @@
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q180" s="2"/>
+      <c r="R180" s="2"/>
+    </row>
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -11431,24 +11903,26 @@
       </c>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+    </row>
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -11467,22 +11941,24 @@
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+    </row>
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="C183" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>926</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="2" t="s">
@@ -11505,20 +11981,22 @@
       </c>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+    </row>
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
@@ -11541,32 +12019,34 @@
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+    </row>
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="C185" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="D185" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>25</v>
@@ -11579,24 +12059,26 @@
       </c>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+    </row>
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -11615,32 +12097,34 @@
       </c>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+    </row>
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="C187" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="D187" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>939</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>940</v>
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>25</v>
@@ -11653,26 +12137,28 @@
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+    </row>
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>941</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="C188" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>943</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -11691,30 +12177,32 @@
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+    </row>
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>25</v>
@@ -11727,24 +12215,26 @@
       </c>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+    </row>
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -11763,24 +12253,26 @@
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+    </row>
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -11799,24 +12291,26 @@
       </c>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+    </row>
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -11835,22 +12329,24 @@
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192" s="2"/>
+      <c r="R192" s="2"/>
+    </row>
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2" t="s">
@@ -11860,7 +12356,7 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>25</v>
@@ -11873,30 +12369,32 @@
       </c>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+    </row>
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>960</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>961</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>25</v>
@@ -11909,24 +12407,26 @@
       </c>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+    </row>
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -11945,24 +12445,26 @@
       </c>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+    </row>
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -11981,24 +12483,26 @@
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+    </row>
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -12017,24 +12521,26 @@
       </c>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+    </row>
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -12053,20 +12559,22 @@
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198" s="2"/>
+      <c r="R198" s="2"/>
+    </row>
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>971</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
@@ -12089,26 +12597,28 @@
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+    </row>
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="C200" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>975</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>977</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -12127,26 +12637,28 @@
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+    </row>
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="C201" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -12165,26 +12677,28 @@
       </c>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201" s="2"/>
+      <c r="R201" s="2"/>
+    </row>
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="C202" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="E202" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -12203,38 +12717,40 @@
       </c>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+    </row>
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="C203" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="F203" s="2">
         <v>2018</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H203" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I203" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="J203" s="2"/>
       <c r="K203" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L203" s="2" t="s">
         <v>25</v>
@@ -12247,24 +12763,26 @@
       </c>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+    </row>
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>996</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -12283,30 +12801,32 @@
       </c>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q204" s="2"/>
+      <c r="R204" s="2"/>
+    </row>
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>1001</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L205" s="2" t="s">
         <v>25</v>
@@ -12319,20 +12839,22 @@
       </c>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+    </row>
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
@@ -12355,24 +12877,26 @@
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+    </row>
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -12391,22 +12915,24 @@
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+    </row>
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="C208" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="D208" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="E208" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -12414,7 +12940,7 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L208" s="2" t="s">
         <v>25</v>
@@ -12427,32 +12953,34 @@
       </c>
       <c r="O208" s="2"/>
       <c r="P208" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+    </row>
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
         <v>1013</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L209" s="2" t="s">
         <v>25</v>
@@ -12465,34 +12993,36 @@
       </c>
       <c r="O209" s="2"/>
       <c r="P209" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+    </row>
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="C210" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="D210" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="E210" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L210" s="2" t="s">
         <v>25</v>
@@ -12505,16 +13035,18 @@
       </c>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+    </row>
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -12522,7 +13054,7 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L211" s="2" t="s">
         <v>25</v>
@@ -12535,16 +13067,18 @@
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+    </row>
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -12552,7 +13086,7 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L212" s="2" t="s">
         <v>25</v>
@@ -12565,32 +13099,34 @@
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+    </row>
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="D213" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="E213" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>1030</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L213" s="2" t="s">
         <v>25</v>
@@ -12603,20 +13139,22 @@
       </c>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>1033</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -12624,7 +13162,7 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L214" s="2" t="s">
         <v>25</v>
@@ -12637,33 +13175,35 @@
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+    </row>
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="E215" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="F215" s="2">
         <v>2021</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K215" s="2" t="s">
         <v>124</v>
@@ -12679,13 +13219,15 @@
       </c>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+    </row>
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>1041</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>1042</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -12696,7 +13238,7 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L216" s="2" t="s">
         <v>25</v>
@@ -12709,17 +13251,19 @@
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+    </row>
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>1043</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>1044</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -12728,7 +13272,7 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L217" s="2" t="s">
         <v>25</v>
@@ -12741,18 +13285,20 @@
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+    </row>
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>1046</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>1047</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -12773,17 +13319,19 @@
       </c>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+    </row>
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>1050</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -12805,17 +13353,19 @@
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+    </row>
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>1052</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>1053</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -12837,33 +13387,35 @@
       </c>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+    </row>
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D221" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D221" s="3" t="s">
+      <c r="E221" s="2" t="s">
         <v>1056</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>1057</v>
       </c>
       <c r="F221" s="2">
         <v>2022</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K221" s="2" t="s">
         <v>31</v>
@@ -12879,28 +13431,30 @@
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+    </row>
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F222" s="2">
         <v>2021</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
       <c r="K222" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L222" s="2" t="s">
         <v>25</v>
@@ -12913,34 +13467,36 @@
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+    </row>
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="C223" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="D223" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="E223" s="2" t="s">
         <v>1062</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="F223" s="2">
         <v>2022</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
       <c r="K223" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L223" s="2" t="s">
         <v>25</v>
@@ -12953,16 +13509,18 @@
       </c>
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+    </row>
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -12970,7 +13528,7 @@
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L224" s="2" t="s">
         <v>25</v>
@@ -12983,30 +13541,32 @@
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+    </row>
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F225" s="2">
         <v>2022</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L225" s="2" t="s">
         <v>25</v>
@@ -13019,28 +13579,30 @@
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+    </row>
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
       <c r="K226" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L226" s="2" t="s">
         <v>25</v>
@@ -13053,30 +13615,32 @@
       </c>
       <c r="O226" s="2"/>
       <c r="P226" s="2" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1012</v>
+      </c>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+    </row>
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="C227" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="F227" s="2">
         <v>2019</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
@@ -13097,20 +13661,22 @@
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+    </row>
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>1071</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>1072</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="F228" s="2">
         <v>2022</v>
@@ -13121,7 +13687,7 @@
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K228" s="2" t="s">
         <v>23</v>
@@ -13137,27 +13703,29 @@
       </c>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+    </row>
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F229" s="2">
         <v>2022</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K229" s="2" t="s">
         <v>124</v>
@@ -13173,33 +13741,35 @@
       </c>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+    </row>
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="C230" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="D230" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>1081</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>1082</v>
       </c>
       <c r="F230" s="2">
         <v>2020</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K230" s="2" t="s">
         <v>64</v>
@@ -13215,31 +13785,33 @@
       </c>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>1083</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>1084</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>1085</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="F231" s="2">
         <v>2021</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K231" s="2" t="s">
         <v>38</v>
@@ -13255,20 +13827,26 @@
       </c>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q231" s="4">
+        <v>51513123</v>
+      </c>
+      <c r="R231" s="4">
+        <v>4474944</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D232" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="E232" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>1090</v>
       </c>
       <c r="F232" s="2">
         <v>2022</v>
@@ -13279,7 +13857,7 @@
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K232" s="2" t="s">
         <v>38</v>
@@ -13295,33 +13873,35 @@
       </c>
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="F233" s="2">
         <v>2022</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H233" s="2"/>
       <c r="I233" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K233" s="2" t="s">
         <v>38</v>
@@ -13337,34 +13917,40 @@
       </c>
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q233" s="4">
+        <v>51409039</v>
+      </c>
+      <c r="R233" s="4">
+        <v>5131476</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="D234" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="E234" s="2" t="s">
         <v>1099</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>1100</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H234" s="2"/>
       <c r="I234" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J234" s="2"/>
       <c r="K234" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L234" s="2" t="s">
         <v>25</v>
@@ -13377,32 +13963,34 @@
       </c>
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+    </row>
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>1101</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="C235" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="D235" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="E235" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
       <c r="K235" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L235" s="2" t="s">
         <v>25</v>
@@ -13415,38 +14003,40 @@
       </c>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+    </row>
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="C236" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="D236" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="E236" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>1110</v>
       </c>
       <c r="F236" s="2">
         <v>2021</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J236" s="2"/>
       <c r="K236" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L236" s="2" t="s">
         <v>25</v>
@@ -13459,38 +14049,40 @@
       </c>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+    </row>
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="D237" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="E237" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="F237" s="2">
         <v>2018</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H237" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="I237" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="J237" s="2"/>
       <c r="K237" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L237" s="2" t="s">
         <v>25</v>
@@ -13503,13 +14095,15 @@
       </c>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+    </row>
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>1113</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>1114</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -13520,7 +14114,7 @@
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L238" s="2" t="s">
         <v>25</v>
@@ -13533,19 +14127,21 @@
       </c>
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+    </row>
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>1115</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="C239" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="3" t="s">
         <v>1117</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>1118</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -13554,7 +14150,7 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L239" s="2" t="s">
         <v>25</v>
@@ -13567,17 +14163,19 @@
       </c>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+    </row>
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>1119</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>1120</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -13599,19 +14197,21 @@
       </c>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+    </row>
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="C241" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="D241" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -13620,7 +14220,7 @@
         <v>30</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J241" s="2"/>
       <c r="K241" s="2" t="s">
@@ -13637,20 +14237,22 @@
       </c>
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+    </row>
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2" t="s">
@@ -13660,7 +14262,7 @@
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L242" s="2" t="s">
         <v>25</v>
@@ -13673,30 +14275,32 @@
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q242" s="2"/>
+      <c r="R242" s="2"/>
+    </row>
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>1129</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>1130</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="3" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H243" s="2"/>
       <c r="I243" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J243" s="2"/>
       <c r="K243" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L243" s="2" t="s">
         <v>25</v>
@@ -13709,17 +14313,19 @@
       </c>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q243" s="2"/>
+      <c r="R243" s="2"/>
+    </row>
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>1133</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>1134</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="3" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="2">
@@ -13730,7 +14336,7 @@
       </c>
       <c r="H244" s="2"/>
       <c r="I244" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J244" s="2"/>
       <c r="K244" s="2" t="s">
@@ -13741,17 +14347,19 @@
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q244" s="2"/>
+      <c r="R244" s="2"/>
+    </row>
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>1137</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>1138</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2">
@@ -13771,47 +14379,51 @@
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+    </row>
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B246" s="3" t="s">
         <v>1140</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>1141</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2">
         <v>2022</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
       <c r="K246" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+    </row>
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>1143</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>1144</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -13829,30 +14441,32 @@
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q247" s="2"/>
+      <c r="R247" s="2"/>
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>1146</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>1147</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2">
         <v>2022</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J248" s="2"/>
       <c r="K248" s="2" t="s">
@@ -13862,8 +14476,11 @@
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
+      <c r="Q248" s="2"/>
+      <c r="R248" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{259B0A8B-2688-2845-9AC9-01896BFE512F}"/>
     <hyperlink ref="D2" r:id="rId2" display="mailto:info@voedselbosbenthuizen.nl;" xr:uid="{18E83F59-DDB7-4D44-B99F-ABFEEC77465C}"/>

--- a/Waterquality/Book4.xlsx
+++ b/Waterquality/Book4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix.toutant/Documents/GitHub/ClimateCleanup-Capstone/Waterquality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56A2F4C-2A03-A34F-BC16-18A5D8D7EC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3700585-BE29-D847-BE67-7552C3561A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16140" xr2:uid="{F9E5DE8A-9EBF-0B48-A51E-ABBFE53E9AA9}"/>
   </bookViews>
@@ -3914,18 +3914,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}" name="Table1" displayName="Table1" ref="A1:R248" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:R248" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Noord-Brabant"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R248" xr:uid="{79FA5128-97FB-3E45-82BD-029229367213}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{BEC96F6B-777B-AF47-946D-5FAC20732C51}" name="Voedselbos" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{8EA4AE63-DD8C-E846-97D7-8486D4237687}" name="Website" dataCellStyle="Hyperlink"/>
@@ -4269,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E9A1F4-02E3-5546-9C92-4F57247C2570}">
   <dimension ref="A1:R248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L15" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4342,7 +4331,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -4388,7 +4377,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -4482,7 +4471,7 @@
         <v>5404334</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -4570,7 +4559,7 @@
         <v>5326369</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -4614,7 +4603,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
@@ -4660,7 +4649,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -4710,7 +4699,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -4760,7 +4749,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -4810,7 +4799,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
@@ -4854,7 +4843,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -4902,7 +4891,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>104</v>
       </c>
@@ -5044,7 +5033,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
@@ -5086,7 +5075,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>125</v>
       </c>
@@ -5136,7 +5125,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
@@ -5180,7 +5169,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>139</v>
       </c>
@@ -5220,7 +5209,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>144</v>
       </c>
@@ -5354,7 +5343,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>164</v>
       </c>
@@ -5448,7 +5437,7 @@
         <v>5531848</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>178</v>
       </c>
@@ -5496,7 +5485,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>186</v>
       </c>
@@ -5544,7 +5533,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>196</v>
       </c>
@@ -5592,7 +5581,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>204</v>
       </c>
@@ -5636,7 +5625,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>211</v>
       </c>
@@ -5680,7 +5669,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>217</v>
       </c>
@@ -5722,7 +5711,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>222</v>
       </c>
@@ -5768,7 +5757,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>229</v>
       </c>
@@ -5816,7 +5805,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>237</v>
       </c>
@@ -5862,7 +5851,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>244</v>
       </c>
@@ -5908,7 +5897,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>252</v>
       </c>
@@ -5954,7 +5943,7 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>259</v>
       </c>
@@ -5996,7 +5985,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>265</v>
       </c>
@@ -6044,7 +6033,7 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>272</v>
       </c>
@@ -6088,7 +6077,7 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>277</v>
       </c>
@@ -6136,7 +6125,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>283</v>
       </c>
@@ -6180,7 +6169,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>289</v>
       </c>
@@ -6226,7 +6215,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>296</v>
       </c>
@@ -6274,7 +6263,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>301</v>
       </c>
@@ -6424,7 +6413,7 @@
         <v>5980283</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>321</v>
       </c>
@@ -6468,7 +6457,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>326</v>
       </c>
@@ -6516,7 +6505,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>334</v>
       </c>
@@ -6554,7 +6543,7 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>338</v>
       </c>
@@ -6602,7 +6591,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>346</v>
       </c>
@@ -6650,7 +6639,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>354</v>
       </c>
@@ -6694,7 +6683,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>359</v>
       </c>
@@ -6742,7 +6731,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>367</v>
       </c>
@@ -6790,7 +6779,7 @@
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>375</v>
       </c>
@@ -6838,7 +6827,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>381</v>
       </c>
@@ -6874,7 +6863,7 @@
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>385</v>
       </c>
@@ -6920,7 +6909,7 @@
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>393</v>
       </c>
@@ -7340,7 +7329,7 @@
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>449</v>
       </c>
@@ -7388,7 +7377,7 @@
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>456</v>
       </c>
@@ -7474,7 +7463,7 @@
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>465</v>
       </c>
@@ -7518,7 +7507,7 @@
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>472</v>
       </c>
@@ -7558,7 +7547,7 @@
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>478</v>
       </c>
@@ -7654,7 +7643,7 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>492</v>
       </c>
@@ -7692,7 +7681,7 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>497</v>
       </c>
@@ -7732,7 +7721,7 @@
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>503</v>
       </c>
@@ -7774,7 +7763,7 @@
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>508</v>
       </c>
@@ -7816,7 +7805,7 @@
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>514</v>
       </c>
@@ -7854,7 +7843,7 @@
       <c r="Q78" s="2"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>519</v>
       </c>
@@ -7894,7 +7883,7 @@
       <c r="Q79" s="2"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>523</v>
       </c>
@@ -7934,7 +7923,7 @@
       <c r="Q80" s="2"/>
       <c r="R80" s="2"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>528</v>
       </c>
@@ -7968,7 +7957,7 @@
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>531</v>
       </c>
@@ -8014,7 +8003,7 @@
       <c r="Q82" s="2"/>
       <c r="R82" s="2"/>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>536</v>
       </c>
@@ -8058,7 +8047,7 @@
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>543</v>
       </c>
@@ -8150,7 +8139,7 @@
         <v>5343474</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>555</v>
       </c>
@@ -8232,7 +8221,7 @@
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>566</v>
       </c>
@@ -8274,7 +8263,7 @@
       <c r="Q88" s="2"/>
       <c r="R88" s="2"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>570</v>
       </c>
@@ -8364,7 +8353,7 @@
         <v>5243554</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>583</v>
       </c>
@@ -8404,7 +8393,7 @@
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>588</v>
       </c>
@@ -8442,7 +8431,7 @@
       <c r="Q92" s="2"/>
       <c r="R92" s="2"/>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>592</v>
       </c>
@@ -8480,7 +8469,7 @@
       <c r="Q93" s="2"/>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>597</v>
       </c>
@@ -8522,7 +8511,7 @@
       <c r="Q94" s="2"/>
       <c r="R94" s="2"/>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>603</v>
       </c>
@@ -8564,7 +8553,7 @@
       <c r="Q95" s="2"/>
       <c r="R95" s="2"/>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>608</v>
       </c>
@@ -8600,7 +8589,7 @@
       <c r="Q96" s="2"/>
       <c r="R96" s="2"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>612</v>
       </c>
@@ -8642,7 +8631,7 @@
       <c r="Q97" s="2"/>
       <c r="R97" s="2"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>619</v>
       </c>
@@ -8684,7 +8673,7 @@
       <c r="Q98" s="2"/>
       <c r="R98" s="2"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>626</v>
       </c>
@@ -8726,7 +8715,7 @@
       <c r="Q99" s="2"/>
       <c r="R99" s="2"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>632</v>
       </c>
@@ -8772,7 +8761,7 @@
       <c r="Q100" s="2"/>
       <c r="R100" s="2"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>639</v>
       </c>
@@ -8812,7 +8801,7 @@
       <c r="Q101" s="2"/>
       <c r="R101" s="2"/>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>643</v>
       </c>
@@ -8850,7 +8839,7 @@
       <c r="Q102" s="2"/>
       <c r="R102" s="2"/>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>646</v>
       </c>
@@ -8890,7 +8879,7 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>651</v>
       </c>
@@ -8930,7 +8919,7 @@
       <c r="Q104" s="2"/>
       <c r="R104" s="2"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>655</v>
       </c>
@@ -8972,7 +8961,7 @@
       <c r="Q105" s="2"/>
       <c r="R105" s="2"/>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>662</v>
       </c>
@@ -9012,7 +9001,7 @@
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>666</v>
       </c>
@@ -9050,7 +9039,7 @@
       <c r="Q107" s="2"/>
       <c r="R107" s="2"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>668</v>
       </c>
@@ -9088,7 +9077,7 @@
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>671</v>
       </c>
@@ -9126,7 +9115,7 @@
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>673</v>
       </c>
@@ -9164,7 +9153,7 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="2"/>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>675</v>
       </c>
@@ -9202,7 +9191,7 @@
       <c r="Q111" s="2"/>
       <c r="R111" s="2"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>678</v>
       </c>
@@ -9240,7 +9229,7 @@
       <c r="Q112" s="2"/>
       <c r="R112" s="2"/>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>681</v>
       </c>
@@ -9278,7 +9267,7 @@
       <c r="Q113" s="2"/>
       <c r="R113" s="2"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>684</v>
       </c>
@@ -9316,7 +9305,7 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="2"/>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>689</v>
       </c>
@@ -9354,7 +9343,7 @@
       <c r="Q115" s="2"/>
       <c r="R115" s="2"/>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>694</v>
       </c>
@@ -9392,7 +9381,7 @@
       <c r="Q116" s="2"/>
       <c r="R116" s="2"/>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>698</v>
       </c>
@@ -9430,7 +9419,7 @@
       <c r="Q117" s="2"/>
       <c r="R117" s="2"/>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>700</v>
       </c>
@@ -9468,7 +9457,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>703</v>
       </c>
@@ -9506,7 +9495,7 @@
       <c r="Q119" s="2"/>
       <c r="R119" s="2"/>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>706</v>
       </c>
@@ -9544,7 +9533,7 @@
       <c r="Q120" s="2"/>
       <c r="R120" s="2"/>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>708</v>
       </c>
@@ -9582,7 +9571,7 @@
       <c r="Q121" s="2"/>
       <c r="R121" s="2"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>710</v>
       </c>
@@ -9620,7 +9609,7 @@
       <c r="Q122" s="2"/>
       <c r="R122" s="2"/>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>713</v>
       </c>
@@ -9658,7 +9647,7 @@
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>714</v>
       </c>
@@ -9696,7 +9685,7 @@
       <c r="Q124" s="2"/>
       <c r="R124" s="2"/>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>717</v>
       </c>
@@ -9734,7 +9723,7 @@
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>720</v>
       </c>
@@ -9772,7 +9761,7 @@
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>723</v>
       </c>
@@ -9810,7 +9799,7 @@
       <c r="Q127" s="2"/>
       <c r="R127" s="2"/>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>726</v>
       </c>
@@ -9848,7 +9837,7 @@
       <c r="Q128" s="2"/>
       <c r="R128" s="2"/>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>730</v>
       </c>
@@ -9888,7 +9877,7 @@
       <c r="Q129" s="2"/>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>736</v>
       </c>
@@ -9928,7 +9917,7 @@
       <c r="Q130" s="2"/>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>741</v>
       </c>
@@ -9966,7 +9955,7 @@
       <c r="Q131" s="2"/>
       <c r="R131" s="2"/>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>744</v>
       </c>
@@ -10008,7 +9997,7 @@
       <c r="Q132" s="2"/>
       <c r="R132" s="2"/>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>750</v>
       </c>
@@ -10046,7 +10035,7 @@
       <c r="Q133" s="2"/>
       <c r="R133" s="2"/>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>752</v>
       </c>
@@ -10084,7 +10073,7 @@
       <c r="Q134" s="2"/>
       <c r="R134" s="2"/>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>756</v>
       </c>
@@ -10124,7 +10113,7 @@
       <c r="Q135" s="2"/>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>761</v>
       </c>
@@ -10168,7 +10157,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>767</v>
       </c>
@@ -10206,7 +10195,7 @@
       <c r="Q137" s="2"/>
       <c r="R137" s="2"/>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>770</v>
       </c>
@@ -10244,7 +10233,7 @@
       <c r="Q138" s="2"/>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>775</v>
       </c>
@@ -10282,7 +10271,7 @@
       <c r="Q139" s="2"/>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>778</v>
       </c>
@@ -10320,7 +10309,7 @@
       <c r="Q140" s="2"/>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>781</v>
       </c>
@@ -10358,7 +10347,7 @@
       <c r="Q141" s="2"/>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>784</v>
       </c>
@@ -10400,7 +10389,7 @@
       <c r="Q142" s="2"/>
       <c r="R142" s="2"/>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>791</v>
       </c>
@@ -10438,7 +10427,7 @@
       <c r="Q143" s="2"/>
       <c r="R143" s="2"/>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>794</v>
       </c>
@@ -10478,7 +10467,7 @@
       <c r="Q144" s="2"/>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>799</v>
       </c>
@@ -10516,7 +10505,7 @@
       <c r="Q145" s="2"/>
       <c r="R145" s="2"/>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>802</v>
       </c>
@@ -10554,7 +10543,7 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>805</v>
       </c>
@@ -10592,7 +10581,7 @@
       <c r="Q147" s="2"/>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>807</v>
       </c>
@@ -10630,7 +10619,7 @@
       <c r="Q148" s="2"/>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>810</v>
       </c>
@@ -10668,7 +10657,7 @@
       <c r="Q149" s="2"/>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>812</v>
       </c>
@@ -10706,7 +10695,7 @@
       <c r="Q150" s="2"/>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>815</v>
       </c>
@@ -10744,7 +10733,7 @@
       <c r="Q151" s="2"/>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>817</v>
       </c>
@@ -10782,7 +10771,7 @@
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>819</v>
       </c>
@@ -10820,7 +10809,7 @@
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>821</v>
       </c>
@@ -10858,7 +10847,7 @@
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>823</v>
       </c>
@@ -10896,7 +10885,7 @@
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>825</v>
       </c>
@@ -10934,7 +10923,7 @@
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>828</v>
       </c>
@@ -10974,7 +10963,7 @@
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>832</v>
       </c>
@@ -11012,7 +11001,7 @@
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>836</v>
       </c>
@@ -11050,7 +11039,7 @@
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>840</v>
       </c>
@@ -11094,7 +11083,7 @@
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>846</v>
       </c>
@@ -11132,7 +11121,7 @@
       <c r="Q161" s="2"/>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>848</v>
       </c>
@@ -11170,7 +11159,7 @@
       <c r="Q162" s="2"/>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>853</v>
       </c>
@@ -11210,7 +11199,7 @@
       <c r="Q163" s="2"/>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>858</v>
       </c>
@@ -11248,7 +11237,7 @@
       <c r="Q164" s="2"/>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>861</v>
       </c>
@@ -11286,7 +11275,7 @@
       <c r="Q165" s="2"/>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>863</v>
       </c>
@@ -11324,7 +11313,7 @@
       <c r="Q166" s="2"/>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>866</v>
       </c>
@@ -11362,7 +11351,7 @@
       <c r="Q167" s="2"/>
       <c r="R167" s="2"/>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>869</v>
       </c>
@@ -11400,7 +11389,7 @@
       <c r="Q168" s="2"/>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>871</v>
       </c>
@@ -11438,7 +11427,7 @@
       <c r="Q169" s="2"/>
       <c r="R169" s="2"/>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>874</v>
       </c>
@@ -11476,7 +11465,7 @@
       <c r="Q170" s="2"/>
       <c r="R170" s="2"/>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>876</v>
       </c>
@@ -11516,7 +11505,7 @@
       <c r="Q171" s="2"/>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>882</v>
       </c>
@@ -11554,7 +11543,7 @@
       <c r="Q172" s="2"/>
       <c r="R172" s="2"/>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>885</v>
       </c>
@@ -11594,7 +11583,7 @@
       <c r="Q173" s="2"/>
       <c r="R173" s="2"/>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>890</v>
       </c>
@@ -11632,7 +11621,7 @@
       <c r="Q174" s="2"/>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>893</v>
       </c>
@@ -11674,7 +11663,7 @@
       <c r="Q175" s="2"/>
       <c r="R175" s="2"/>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>900</v>
       </c>
@@ -11712,7 +11701,7 @@
       <c r="Q176" s="2"/>
       <c r="R176" s="2"/>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>902</v>
       </c>
@@ -11750,7 +11739,7 @@
       <c r="Q177" s="2"/>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>906</v>
       </c>
@@ -11790,7 +11779,7 @@
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>911</v>
       </c>
@@ -11828,7 +11817,7 @@
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>913</v>
       </c>
@@ -11868,7 +11857,7 @@
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>918</v>
       </c>
@@ -11906,7 +11895,7 @@
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>921</v>
       </c>
@@ -11944,7 +11933,7 @@
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>923</v>
       </c>
@@ -11984,7 +11973,7 @@
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>926</v>
       </c>
@@ -12022,7 +12011,7 @@
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>928</v>
       </c>
@@ -12062,7 +12051,7 @@
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>934</v>
       </c>
@@ -12100,7 +12089,7 @@
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>936</v>
       </c>
@@ -12140,7 +12129,7 @@
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>940</v>
       </c>
@@ -12180,7 +12169,7 @@
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>945</v>
       </c>
@@ -12218,7 +12207,7 @@
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>948</v>
       </c>
@@ -12256,7 +12245,7 @@
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>950</v>
       </c>
@@ -12294,7 +12283,7 @@
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>953</v>
       </c>
@@ -12332,7 +12321,7 @@
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>954</v>
       </c>
@@ -12372,7 +12361,7 @@
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>959</v>
       </c>
@@ -12410,7 +12399,7 @@
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>962</v>
       </c>
@@ -12448,7 +12437,7 @@
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>964</v>
       </c>
@@ -12486,7 +12475,7 @@
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>965</v>
       </c>
@@ -12524,7 +12513,7 @@
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>967</v>
       </c>
@@ -12562,7 +12551,7 @@
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>969</v>
       </c>
@@ -12600,7 +12589,7 @@
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>972</v>
       </c>
@@ -12640,7 +12629,7 @@
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>978</v>
       </c>
@@ -12680,7 +12669,7 @@
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>983</v>
       </c>
@@ -12720,7 +12709,7 @@
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>988</v>
       </c>
@@ -12766,7 +12755,7 @@
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>995</v>
       </c>
@@ -12804,7 +12793,7 @@
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>999</v>
       </c>
@@ -12842,7 +12831,7 @@
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>1002</v>
       </c>
@@ -12880,7 +12869,7 @@
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>1004</v>
       </c>
@@ -12918,7 +12907,7 @@
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>1007</v>
       </c>
@@ -12958,7 +12947,7 @@
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>1013</v>
       </c>
@@ -12998,7 +12987,7 @@
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>1016</v>
       </c>
@@ -13038,7 +13027,7 @@
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13070,7 +13059,7 @@
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13102,7 +13091,7 @@
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>1025</v>
       </c>
@@ -13142,7 +13131,7 @@
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>1031</v>
       </c>
@@ -13178,7 +13167,7 @@
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>1035</v>
       </c>
@@ -13222,7 +13211,7 @@
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1040</v>
       </c>
@@ -13254,7 +13243,7 @@
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>1042</v>
       </c>
@@ -13288,7 +13277,7 @@
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>1045</v>
       </c>
@@ -13322,7 +13311,7 @@
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>1048</v>
       </c>
@@ -13356,7 +13345,7 @@
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>1051</v>
       </c>
@@ -13390,7 +13379,7 @@
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>265</v>
       </c>
@@ -13434,7 +13423,7 @@
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13470,7 +13459,7 @@
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>1058</v>
       </c>
@@ -13512,7 +13501,7 @@
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13546,7 +13535,7 @@
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13584,7 +13573,7 @@
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>1022</v>
       </c>
@@ -13620,7 +13609,7 @@
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>1066</v>
       </c>
@@ -13664,7 +13653,7 @@
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>1070</v>
       </c>
@@ -13706,7 +13695,7 @@
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>1074</v>
       </c>
@@ -13744,7 +13733,7 @@
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>1077</v>
       </c>
@@ -13924,7 +13913,7 @@
         <v>5131476</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>1095</v>
       </c>
@@ -13966,7 +13955,7 @@
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>1100</v>
       </c>
@@ -14006,7 +13995,7 @@
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>1105</v>
       </c>
@@ -14052,7 +14041,7 @@
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>1111</v>
       </c>
@@ -14098,7 +14087,7 @@
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>1112</v>
       </c>
@@ -14130,7 +14119,7 @@
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>1114</v>
       </c>
@@ -14166,7 +14155,7 @@
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1118</v>
       </c>
@@ -14200,7 +14189,7 @@
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>1121</v>
       </c>
@@ -14240,7 +14229,7 @@
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>1126</v>
       </c>
@@ -14278,7 +14267,7 @@
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>1128</v>
       </c>
@@ -14316,7 +14305,7 @@
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>1132</v>
       </c>
@@ -14350,7 +14339,7 @@
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>1136</v>
       </c>
@@ -14382,7 +14371,7 @@
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>1139</v>
       </c>
@@ -14414,7 +14403,7 @@
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>1142</v>
       </c>

--- a/Waterquality/Book4.xlsx
+++ b/Waterquality/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix.toutant/Documents/GitHub/ClimateCleanup-Capstone/Waterquality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3700585-BE29-D847-BE67-7552C3561A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C3243E-3A77-CD45-9F5F-DC16B3F3C7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16140" xr2:uid="{F9E5DE8A-9EBF-0B48-A51E-ABBFE53E9AA9}"/>
+    <workbookView xWindow="780" yWindow="920" windowWidth="27640" windowHeight="16140" xr2:uid="{F9E5DE8A-9EBF-0B48-A51E-ABBFE53E9AA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4259,7 +4259,7 @@
   <dimension ref="A1:R248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14785,6 +14785,7 @@
     <hyperlink ref="D248" r:id="rId312" display="mailto:info@stichtingjuniper.nl" xr:uid="{A0AA0C24-CCDA-E342-A4AA-A89F9535D4E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId313"/>
   </tableParts>
